--- a/Analyses/part_II/outputs/02_analyses_CAMs/Leiden algorithm aggregated CAM/LeidenAlgorithm_solution.xlsx
+++ b/Analyses/part_II/outputs/02_analyses_CAMs/Leiden algorithm aggregated CAM/LeidenAlgorithm_solution.xlsx
@@ -191,6 +191,18 @@
     <t>umweltschädlich</t>
   </si>
   <si>
+    <t>ökologisch</t>
+  </si>
+  <si>
+    <t>elektronikfrei</t>
+  </si>
+  <si>
+    <t>nachhaltig</t>
+  </si>
+  <si>
+    <t>umweltfreundlich</t>
+  </si>
+  <si>
     <t>Energie speichernd</t>
   </si>
   <si>
@@ -203,18 +215,6 @@
     <t>Energie generierend</t>
   </si>
   <si>
-    <t>ökologisch</t>
-  </si>
-  <si>
-    <t>elektronikfrei</t>
-  </si>
-  <si>
-    <t>nachhaltig</t>
-  </si>
-  <si>
-    <t>umweltfreundlich</t>
-  </si>
-  <si>
     <t>Insekten ähnlich</t>
   </si>
   <si>
@@ -290,6 +290,18 @@
     <t>0.9272266309451215</t>
   </si>
   <si>
+    <t>1.044514984358776</t>
+  </si>
+  <si>
+    <t>1.074369027901941</t>
+  </si>
+  <si>
+    <t>0.9819805060619657</t>
+  </si>
+  <si>
+    <t>0.9329825650087534</t>
+  </si>
+  <si>
     <t>0.9947736064231231</t>
   </si>
   <si>
@@ -300,18 +312,6 @@
   </si>
   <si>
     <t>1.1811184769443404</t>
-  </si>
-  <si>
-    <t>1.044514984358776</t>
-  </si>
-  <si>
-    <t>1.074369027901941</t>
-  </si>
-  <si>
-    <t>0.9819805060619657</t>
-  </si>
-  <si>
-    <t>0.9329825650087534</t>
   </si>
   <si>
     <t>1.1433897392410142</t>
@@ -771,7 +771,7 @@
         <v>59</v>
       </c>
       <c r="D24" t="n">
-        <v>1.4970414201183433</v>
+        <v>1.8994082840236686</v>
       </c>
       <c r="E24" t="s">
         <v>92</v>
@@ -788,7 +788,7 @@
         <v>60</v>
       </c>
       <c r="D25" t="n">
-        <v>2.076923076923077</v>
+        <v>0.4556213017751479</v>
       </c>
       <c r="E25" t="s">
         <v>93</v>
@@ -805,7 +805,7 @@
         <v>61</v>
       </c>
       <c r="D26" t="n">
-        <v>1.4260355029585798</v>
+        <v>2.3846153846153846</v>
       </c>
       <c r="E26" t="s">
         <v>94</v>
@@ -822,7 +822,7 @@
         <v>62</v>
       </c>
       <c r="D27" t="n">
-        <v>1.7159763313609468</v>
+        <v>2.4911242603550297</v>
       </c>
       <c r="E27" t="s">
         <v>95</v>
@@ -839,7 +839,7 @@
         <v>63</v>
       </c>
       <c r="D28" t="n">
-        <v>1.8994082840236686</v>
+        <v>1.4970414201183433</v>
       </c>
       <c r="E28" t="s">
         <v>96</v>
@@ -856,7 +856,7 @@
         <v>64</v>
       </c>
       <c r="D29" t="n">
-        <v>0.4556213017751479</v>
+        <v>2.076923076923077</v>
       </c>
       <c r="E29" t="s">
         <v>97</v>
@@ -873,7 +873,7 @@
         <v>65</v>
       </c>
       <c r="D30" t="n">
-        <v>2.3846153846153846</v>
+        <v>1.4260355029585798</v>
       </c>
       <c r="E30" t="s">
         <v>98</v>
@@ -890,7 +890,7 @@
         <v>66</v>
       </c>
       <c r="D31" t="n">
-        <v>2.4911242603550297</v>
+        <v>1.7159763313609468</v>
       </c>
       <c r="E31" t="s">
         <v>99</v>

--- a/Analyses/part_II/outputs/02_analyses_CAMs/Leiden algorithm aggregated CAM/LeidenAlgorithm_solution.xlsx
+++ b/Analyses/part_II/outputs/02_analyses_CAMs/Leiden algorithm aggregated CAM/LeidenAlgorithm_solution.xlsx
@@ -92,6 +92,18 @@
     <t>umweltschädlich</t>
   </si>
   <si>
+    <t>ökologisch</t>
+  </si>
+  <si>
+    <t>elektronikfrei</t>
+  </si>
+  <si>
+    <t>nachhaltig</t>
+  </si>
+  <si>
+    <t>umweltfreundlich</t>
+  </si>
+  <si>
     <t>Energie speichernd</t>
   </si>
   <si>
@@ -102,18 +114,6 @@
   </si>
   <si>
     <t>Energie generierend</t>
-  </si>
-  <si>
-    <t>ökologisch</t>
-  </si>
-  <si>
-    <t>elektronikfrei</t>
-  </si>
-  <si>
-    <t>nachhaltig</t>
-  </si>
-  <si>
-    <t>umweltfreundlich</t>
   </si>
   <si>
     <t>Insekten ähnlich</t>
@@ -503,10 +503,10 @@
         <v>26</v>
       </c>
       <c r="C24" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9947736064231231</v>
+        <v>1.044514984358776</v>
       </c>
     </row>
     <row r="25">
@@ -517,10 +517,10 @@
         <v>27</v>
       </c>
       <c r="C25" t="n">
-        <v>2.08</v>
+        <v>0.46</v>
       </c>
       <c r="D25" t="n">
-        <v>1.0118347314702751</v>
+        <v>1.074369027901941</v>
       </c>
     </row>
     <row r="26">
@@ -531,10 +531,10 @@
         <v>28</v>
       </c>
       <c r="C26" t="n">
-        <v>1.43</v>
+        <v>2.38</v>
       </c>
       <c r="D26" t="n">
-        <v>1.0671653701762749</v>
+        <v>0.9819805060619657</v>
       </c>
     </row>
     <row r="27">
@@ -545,10 +545,10 @@
         <v>29</v>
       </c>
       <c r="C27" t="n">
-        <v>1.72</v>
+        <v>2.49</v>
       </c>
       <c r="D27" t="n">
-        <v>1.1811184769443404</v>
+        <v>0.9329825650087534</v>
       </c>
     </row>
     <row r="28">
@@ -559,10 +559,10 @@
         <v>30</v>
       </c>
       <c r="C28" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="D28" t="n">
-        <v>1.044514984358776</v>
+        <v>0.9947736064231231</v>
       </c>
     </row>
     <row r="29">
@@ -573,10 +573,10 @@
         <v>31</v>
       </c>
       <c r="C29" t="n">
-        <v>0.46</v>
+        <v>2.08</v>
       </c>
       <c r="D29" t="n">
-        <v>1.074369027901941</v>
+        <v>1.0118347314702751</v>
       </c>
     </row>
     <row r="30">
@@ -587,10 +587,10 @@
         <v>32</v>
       </c>
       <c r="C30" t="n">
-        <v>2.38</v>
+        <v>1.43</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9819805060619657</v>
+        <v>1.0671653701762749</v>
       </c>
     </row>
     <row r="31">
@@ -601,10 +601,10 @@
         <v>33</v>
       </c>
       <c r="C31" t="n">
-        <v>2.49</v>
+        <v>1.72</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9329825650087534</v>
+        <v>1.1811184769443404</v>
       </c>
     </row>
     <row r="32">
